--- a/project3/benchmarking_data.xlsx
+++ b/project3/benchmarking_data.xlsx
@@ -419,6 +419,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -428,13 +437,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -442,33 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -667,11 +667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124927848"/>
-        <c:axId val="2109979704"/>
+        <c:axId val="2089894536"/>
+        <c:axId val="2089891400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124927848"/>
+        <c:axId val="2089894536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109979704"/>
+        <c:crossAx val="2089891400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -688,7 +688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109979704"/>
+        <c:axId val="2089891400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124927848"/>
+        <c:crossAx val="2089894536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -899,11 +899,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127441432"/>
-        <c:axId val="-2127220744"/>
+        <c:axId val="2093343752"/>
+        <c:axId val="2093346872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127441432"/>
+        <c:axId val="2093343752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127220744"/>
+        <c:crossAx val="2093346872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -920,7 +920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127220744"/>
+        <c:axId val="2093346872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127441432"/>
+        <c:crossAx val="2093343752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,11 +1131,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2090244728"/>
-        <c:axId val="-2088648920"/>
+        <c:axId val="2089838792"/>
+        <c:axId val="2089835656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2090244728"/>
+        <c:axId val="2089838792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088648920"/>
+        <c:crossAx val="2089835656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1152,7 +1152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088648920"/>
+        <c:axId val="2089835656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000.0"/>
@@ -1188,7 +1188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090244728"/>
+        <c:crossAx val="2089838792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1629,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1639,12 +1639,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -1652,89 +1652,89 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="82" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1851,22 +1851,38 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2">
+        <v>18022</v>
+      </c>
+      <c r="D16" s="2">
+        <v>239598</v>
+      </c>
+      <c r="E16" s="2">
+        <v>67226</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2">
+        <v>16534</v>
+      </c>
+      <c r="D17" s="2">
+        <v>206661</v>
+      </c>
+      <c r="E17" s="2">
+        <v>57561</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1917,26 +1933,26 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="20">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="82" customHeight="1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2065,13 +2081,13 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="41" customHeight="1">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -2079,13 +2095,13 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="87" customHeight="1">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2199,18 +2215,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
